--- a/yaml_test_type_summary_Excel.xlsx
+++ b/yaml_test_type_summary_Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet5" sheetId="6" r:id="rId1"/>
@@ -12,13 +12,13 @@
   </sheets>
   <calcPr calcId="125725"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9553" uniqueCount="4350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9560" uniqueCount="4349">
   <si>
     <t>yaml_file</t>
   </si>
@@ -13059,9 +13059,6 @@
   </si>
   <si>
     <t>Row Labels</t>
-  </si>
-  <si>
-    <t>(blank)</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -13211,7 +13208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13391,8 +13388,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -13507,6 +13510,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -13552,13 +13570,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -35336,8 +35363,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="G2:H9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="G2:H8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -35347,7 +35374,7 @@
         <item x="4"/>
         <item x="3"/>
         <item x="1"/>
-        <item x="5"/>
+        <item h="1" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -35356,7 +35383,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="7">
+  <rowItems count="6">
     <i>
       <x/>
     </i>
@@ -35371,9 +35398,6 @@
     </i>
     <i>
       <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -35688,8 +35712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C432"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40463,12 +40487,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4339"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="112" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -40498,7 +40524,7 @@
         <v>4346</v>
       </c>
       <c r="H2" t="s">
-        <v>4349</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -40599,7 +40625,9 @@
       <c r="G8" s="2" t="s">
         <v>4347</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <v>4338</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -40611,12 +40639,6 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>4348</v>
-      </c>
-      <c r="H9" s="3">
-        <v>4338</v>
-      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
@@ -40628,6 +40650,12 @@
       <c r="C10" t="b">
         <v>0</v>
       </c>
+      <c r="G10" s="8" t="s">
+        <v>4346</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>4348</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
@@ -40639,6 +40667,12 @@
       <c r="C11" t="b">
         <v>0</v>
       </c>
+      <c r="G11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
@@ -40650,6 +40684,12 @@
       <c r="C12" t="b">
         <v>0</v>
       </c>
+      <c r="G12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="5">
+        <v>431</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
@@ -40661,6 +40701,12 @@
       <c r="C13" t="b">
         <v>0</v>
       </c>
+      <c r="G13" s="4" t="s">
+        <v>1886</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
@@ -40672,6 +40718,12 @@
       <c r="C14" t="b">
         <v>0</v>
       </c>
+      <c r="G14" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14" s="5">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
@@ -40683,6 +40735,12 @@
       <c r="C15" t="b">
         <v>0</v>
       </c>
+      <c r="G15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="5">
+        <v>3878</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
@@ -40694,6 +40752,12 @@
       <c r="C16" t="b">
         <v>0</v>
       </c>
+      <c r="G16" s="6" t="s">
+        <v>4347</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4338</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
@@ -88250,5 +88314,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>